--- a/Texas/Regulatory/TXre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Texas/Regulatory/TXre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C636B0-C6FF-4CFD-B01A-5ED4F632700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84CDC3B-203E-4371-883A-94ACF356B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="5" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="167">
   <si>
     <t>Item</t>
   </si>
@@ -211,18 +211,6 @@
   </si>
   <si>
     <t>Name of the contact person for the organization.</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Texas</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/WaDE2.0</t>
-  </si>
-  <si>
-    <t>A URL to WaDE GitHub repository page for the provided data.</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -717,31 +705,35 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1921,11 +1913,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2117,7 +2109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2125,7 @@
       <c r="E6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="20" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="31" t="s">
@@ -2168,7 +2160,7 @@
       <c r="E7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="123" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="31" t="s">
@@ -2198,12 +2190,12 @@
         <v>30</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="130" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -2233,12 +2225,12 @@
         <v>30</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="124" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="31" t="s">
@@ -2262,7 +2254,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>30</v>
@@ -2271,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="124" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>30</v>
@@ -2286,51 +2278,19 @@
         <v>30</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>80</v>
+    <row r="12" spans="1:11" ht="18">
+      <c r="F12" s="78" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18">
-      <c r="F13" s="78" t="s">
-        <v>39</v>
-      </c>
+    <row r="17" spans="1:1">
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18"/>
@@ -2353,20 +2313,16 @@
     <row r="24" spans="1:1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
-    <sortCondition ref="A5:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
+    <sortCondition ref="A5:A11"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B0F96C0B-2A97-4774-A0D1-800186644071}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{19ABE044-45EE-4CDC-BD05-14BADA179611}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{181E081E-E029-42EF-AE93-94C5A29B1923}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{19ABE044-45EE-4CDC-BD05-14BADA179611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2432,7 +2388,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>29</v>
@@ -2462,15 +2418,15 @@
         <v>30</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>30</v>
@@ -2482,7 +2438,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="59"/>
@@ -2490,20 +2446,20 @@
         <v>30</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>30</v>
@@ -2526,17 +2482,17 @@
         <v>4326</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>30</v>
@@ -2548,7 +2504,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="129" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="64"/>
@@ -2556,20 +2512,20 @@
         <v>30</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>30</v>
@@ -2584,29 +2540,29 @@
         <v>30</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" s="84" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>30</v>
@@ -2621,10 +2577,10 @@
         <v>30</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I7" s="84" t="s">
         <v>30</v>
@@ -2633,17 +2589,17 @@
         <v>48001</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1">
       <c r="A8" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>30</v>
@@ -2655,7 +2611,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>30</v>
@@ -2668,17 +2624,17 @@
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>30</v>
@@ -2687,7 +2643,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>10</v>
@@ -2702,17 +2658,17 @@
         <v>30</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>33</v>
@@ -2739,20 +2695,20 @@
         <v>30</v>
       </c>
       <c r="J10" s="88" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1">
       <c r="A11" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>30</v>
@@ -2761,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>30</v>
@@ -2776,10 +2732,10 @@
         <v>30</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2908,7 +2864,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>29</v>
@@ -2928,15 +2884,15 @@
       <c r="I2" s="33"/>
       <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>30</v>
@@ -2948,7 +2904,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -2956,18 +2912,18 @@
         <v>30</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24">
       <c r="A4" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>30</v>
@@ -2979,7 +2935,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>30</v>
@@ -2991,18 +2947,18 @@
         <v>30</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72">
       <c r="A5" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>30</v>
@@ -3014,7 +2970,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>30</v>
@@ -3026,18 +2982,18 @@
         <v>30</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>30</v>
@@ -3052,27 +3008,27 @@
         <v>30</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>30</v>
@@ -3085,27 +3041,27 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>30</v>
@@ -3117,7 +3073,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>30</v>
@@ -3129,18 +3085,18 @@
         <v>30</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1">
       <c r="A9" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>30</v>
@@ -3155,25 +3111,25 @@
         <v>30</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1">
       <c r="A10" s="36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>30</v>
@@ -3188,24 +3144,24 @@
         <v>30</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1">
       <c r="A11" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>33</v>
@@ -3223,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>30</v>
@@ -3235,12 +3191,12 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1">
       <c r="A12" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>33</v>
@@ -3255,7 +3211,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G12" s="63" t="s">
         <v>30</v>
@@ -3268,15 +3224,15 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>30</v>
@@ -3285,7 +3241,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F13" s="53" t="s">
         <v>10</v>
@@ -3300,18 +3256,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>30</v>
@@ -3320,10 +3276,10 @@
         <v>37</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>30</v>
@@ -3335,10 +3291,10 @@
         <v>30</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3381,7 +3337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A648D-819E-4218-A4B0-4C8007085FA3}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -3439,7 +3395,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="116" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>29</v>
@@ -3459,12 +3415,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>29</v>
@@ -3476,7 +3432,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" s="52">
         <v>45132</v>
@@ -3494,7 +3450,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3511,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>46</v>
@@ -3526,7 +3482,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>48</v>
@@ -3534,7 +3490,7 @@
     </row>
     <row r="5" spans="1:11" ht="24">
       <c r="A5" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>29</v>
@@ -3546,10 +3502,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>30</v>
@@ -3561,15 +3517,15 @@
         <v>30</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24">
       <c r="A6" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>29</v>
@@ -3581,10 +3537,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>30</v>
@@ -3596,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3738,7 +3694,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>29</v>
@@ -3755,12 +3711,12 @@
       <c r="H2" s="101"/>
       <c r="I2" s="101"/>
       <c r="J2" s="102" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="97" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>29</v>
@@ -3769,7 +3725,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
@@ -3781,12 +3737,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>29</v>
@@ -3795,7 +3751,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" s="107"/>
       <c r="F4" s="105"/>
@@ -3807,7 +3763,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3815,7 +3771,7 @@
     </row>
     <row r="7" spans="1:10" ht="18">
       <c r="E7" s="78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10">
